--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H2">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I2">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J2">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>683.1960554783522</v>
+        <v>63.9024839917619</v>
       </c>
       <c r="R2">
-        <v>6148.764499305169</v>
+        <v>575.1223559258571</v>
       </c>
       <c r="S2">
-        <v>0.00129178319820566</v>
+        <v>0.0001404994932796408</v>
       </c>
       <c r="T2">
-        <v>0.00129178319820566</v>
+        <v>0.0001404994932796408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H3">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I3">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J3">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>645.5553647470462</v>
+        <v>111.2971769543327</v>
       </c>
       <c r="R3">
-        <v>5809.998282723415</v>
+        <v>1001.674592588994</v>
       </c>
       <c r="S3">
-        <v>0.001220612395233866</v>
+        <v>0.0002447040551280314</v>
       </c>
       <c r="T3">
-        <v>0.001220612395233866</v>
+        <v>0.0002447040551280315</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H4">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I4">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J4">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>757.1440657908489</v>
+        <v>137.4939341224982</v>
       </c>
       <c r="R4">
-        <v>6814.29659211764</v>
+        <v>1237.445407102484</v>
       </c>
       <c r="S4">
-        <v>0.001431603673596928</v>
+        <v>0.0003023016769696417</v>
       </c>
       <c r="T4">
-        <v>0.001431603673596928</v>
+        <v>0.0003023016769696417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J5">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>166615.6598173949</v>
+        <v>90393.57302055211</v>
       </c>
       <c r="R5">
-        <v>1499540.938356554</v>
+        <v>813542.1571849691</v>
       </c>
       <c r="S5">
-        <v>0.3150359376114409</v>
+        <v>0.198744249233896</v>
       </c>
       <c r="T5">
-        <v>0.3150359376114409</v>
+        <v>0.1987442492338961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J6">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>157435.9690509019</v>
@@ -818,10 +818,10 @@
         <v>1416923.721458117</v>
       </c>
       <c r="S6">
-        <v>0.2976790307590199</v>
+        <v>0.3461473247032543</v>
       </c>
       <c r="T6">
-        <v>0.2976790307590199</v>
+        <v>0.3461473247032544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J7">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>184649.863076624</v>
+        <v>194492.7207459928</v>
       </c>
       <c r="R7">
-        <v>1661848.767689616</v>
+        <v>1750434.486713936</v>
       </c>
       <c r="S7">
-        <v>0.3491349060941946</v>
+        <v>0.427622323960262</v>
       </c>
       <c r="T7">
-        <v>0.3491349060941945</v>
+        <v>0.4276223239602621</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H8">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I8">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J8">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>5925.328317127872</v>
+        <v>2490.88566128027</v>
       </c>
       <c r="R8">
-        <v>53327.95485415084</v>
+        <v>22417.97095152243</v>
       </c>
       <c r="S8">
-        <v>0.01120357692720979</v>
+        <v>0.005476597330277764</v>
       </c>
       <c r="T8">
-        <v>0.01120357692720979</v>
+        <v>0.005476597330277765</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H9">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I9">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J9">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>5598.872318329256</v>
+        <v>4338.306195612982</v>
       </c>
       <c r="R9">
-        <v>50389.8508649633</v>
+        <v>39044.75576051685</v>
       </c>
       <c r="S9">
-        <v>0.01058631578991263</v>
+        <v>0.009538437070053939</v>
       </c>
       <c r="T9">
-        <v>0.01058631578991263</v>
+        <v>0.00953843707005394</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H10">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I10">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J10">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>6566.67604738242</v>
+        <v>5359.44219418601</v>
       </c>
       <c r="R10">
-        <v>59100.08442644177</v>
+        <v>48234.97974767409</v>
       </c>
       <c r="S10">
-        <v>0.01241623355118588</v>
+        <v>0.01178356247687859</v>
       </c>
       <c r="T10">
-        <v>0.01241623355118588</v>
+        <v>0.01178356247687859</v>
       </c>
     </row>
   </sheetData>
